--- a/xlsxファイル/user作成手順書0.02.xlsx
+++ b/xlsxファイル/user作成手順書0.02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9004062687\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9004062687\Desktop\file\workfile\xlsxファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA7DA07-3D78-4940-A4A6-0A125804DE2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097F715C-71F1-4378-B82A-94BCB0C9A093}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7A644AAC-1458-4F48-A325-297031A5B4BA}"/>
   </bookViews>
@@ -453,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,14 +470,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -5248,10 +5251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541C6618-F725-4338-8B6F-36DC95348F4B}">
-  <dimension ref="B2:O177"/>
+  <dimension ref="B2:O179"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5264,30 +5267,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11"/>
@@ -5427,7 +5430,7 @@
       <c r="O31" s="2"/>
     </row>
     <row r="46" spans="7:13" ht="24" x14ac:dyDescent="0.5">
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="12" t="s">
         <v>30</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -5498,6 +5501,9 @@
         <v>24</v>
       </c>
     </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E179" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:K3"/>
@@ -5532,30 +5538,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11"/>
@@ -5591,7 +5597,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="24" x14ac:dyDescent="0.5">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -5599,7 +5605,7 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="24" x14ac:dyDescent="0.5">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -5610,7 +5616,7 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="E14" s="14"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="41" spans="6:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="F41" s="2" t="s">
